--- a/IPC2024_base2010/indprod_5_2024.xlsx
+++ b/IPC2024_base2010/indprod_5_2024.xlsx
@@ -1286,7 +1286,7 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>226.9685205158533</v>
+        <v>226.9916456069929</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1342,7 +1342,7 @@
         <v>17</v>
       </c>
       <c r="D7">
-        <v>198.2492897213821</v>
+        <v>198.3287742392005</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1384,7 +1384,7 @@
         <v>20</v>
       </c>
       <c r="D10">
-        <v>269.1424527995092</v>
+        <v>269.4206958267399</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1398,7 +1398,7 @@
         <v>21</v>
       </c>
       <c r="D11">
-        <v>193.1437653811685</v>
+        <v>193.1425456926959</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1412,7 +1412,7 @@
         <v>22</v>
       </c>
       <c r="D12">
-        <v>135.1416510085152</v>
+        <v>135.4844706606465</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1426,7 +1426,7 @@
         <v>23</v>
       </c>
       <c r="D13">
-        <v>153.2298654444139</v>
+        <v>153.3650050581451</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1440,7 +1440,7 @@
         <v>24</v>
       </c>
       <c r="D14">
-        <v>157.3593641511809</v>
+        <v>157.3568264058626</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1468,7 +1468,7 @@
         <v>26</v>
       </c>
       <c r="D16">
-        <v>240.9141015472239</v>
+        <v>240.9080809162002</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1482,7 +1482,7 @@
         <v>27</v>
       </c>
       <c r="D17">
-        <v>150.5003156088055</v>
+        <v>150.5030444543971</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1496,7 +1496,7 @@
         <v>28</v>
       </c>
       <c r="D18">
-        <v>188.6311817628637</v>
+        <v>188.5445173241244</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1510,7 +1510,7 @@
         <v>29</v>
       </c>
       <c r="D19">
-        <v>359.6364432444216</v>
+        <v>359.6345897015651</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1524,7 +1524,7 @@
         <v>30</v>
       </c>
       <c r="D20">
-        <v>208.4070209815853</v>
+        <v>208.3998183454929</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1538,7 +1538,7 @@
         <v>31</v>
       </c>
       <c r="D21">
-        <v>293.7453608793181</v>
+        <v>293.9360938295179</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1552,7 +1552,7 @@
         <v>32</v>
       </c>
       <c r="D22">
-        <v>183.1918543747132</v>
+        <v>183.1881198086847</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1566,7 +1566,7 @@
         <v>33</v>
       </c>
       <c r="D23">
-        <v>987.9621445041636</v>
+        <v>985.961282615254</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1594,7 +1594,7 @@
         <v>35</v>
       </c>
       <c r="D25">
-        <v>186.4759668166205</v>
+        <v>186.5023387187852</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1622,7 +1622,7 @@
         <v>37</v>
       </c>
       <c r="D27">
-        <v>434.3547770454306</v>
+        <v>435.8999925651004</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1636,7 +1636,7 @@
         <v>38</v>
       </c>
       <c r="D28">
-        <v>514.222755400763</v>
+        <v>515.1345436382093</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1664,7 +1664,7 @@
         <v>40</v>
       </c>
       <c r="D30">
-        <v>566.6926950103513</v>
+        <v>566.6963853982829</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1678,7 +1678,7 @@
         <v>41</v>
       </c>
       <c r="D31">
-        <v>4065.792882340961</v>
+        <v>4056.236351107285</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1706,7 +1706,7 @@
         <v>43</v>
       </c>
       <c r="D33">
-        <v>546.9829131714114</v>
+        <v>547.2613229648838</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1734,7 +1734,7 @@
         <v>45</v>
       </c>
       <c r="D35">
-        <v>940.1299550859824</v>
+        <v>913.0585301653078</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1748,7 +1748,7 @@
         <v>46</v>
       </c>
       <c r="D36">
-        <v>673.1696916253609</v>
+        <v>671.8464145343568</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1776,7 +1776,7 @@
         <v>48</v>
       </c>
       <c r="D38">
-        <v>850.937926314069</v>
+        <v>849.5348914667478</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1790,7 +1790,7 @@
         <v>49</v>
       </c>
       <c r="D39">
-        <v>715.8008909495421</v>
+        <v>705.2715082267671</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1804,7 +1804,7 @@
         <v>50</v>
       </c>
       <c r="D40">
-        <v>943.9856522355047</v>
+        <v>958.4313386395582</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1832,7 +1832,7 @@
         <v>52</v>
       </c>
       <c r="D42">
-        <v>588.9798104599552</v>
+        <v>589.3013009325759</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1902,7 +1902,7 @@
         <v>57</v>
       </c>
       <c r="D47">
-        <v>2905.120591908824</v>
+        <v>2897.388713099344</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1930,7 +1930,7 @@
         <v>59</v>
       </c>
       <c r="D49">
-        <v>1511.856621107362</v>
+        <v>1511.422138662282</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1986,7 +1986,7 @@
         <v>63</v>
       </c>
       <c r="D53">
-        <v>133.0972411543651</v>
+        <v>133.0975930237133</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2042,7 +2042,7 @@
         <v>67</v>
       </c>
       <c r="D57">
-        <v>153.1671145819056</v>
+        <v>153.1232983975169</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2182,7 +2182,7 @@
         <v>77</v>
       </c>
       <c r="D67">
-        <v>153.1242206970457</v>
+        <v>153.1551436924688</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2210,7 +2210,7 @@
         <v>79</v>
       </c>
       <c r="D69">
-        <v>143.3092568644933</v>
+        <v>142.7032073850504</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2238,7 +2238,7 @@
         <v>81</v>
       </c>
       <c r="D71">
-        <v>145.2429113921242</v>
+        <v>145.2453649957453</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2294,7 +2294,7 @@
         <v>85</v>
       </c>
       <c r="D75">
-        <v>146.4847363005402</v>
+        <v>146.4886213409688</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2308,7 +2308,7 @@
         <v>86</v>
       </c>
       <c r="D76">
-        <v>119.7320697579823</v>
+        <v>119.732135991346</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2350,7 +2350,7 @@
         <v>89</v>
       </c>
       <c r="D79">
-        <v>112.8476024275817</v>
+        <v>112.8232936884075</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2462,7 +2462,7 @@
         <v>97</v>
       </c>
       <c r="D87">
-        <v>121.514582373568</v>
+        <v>121.5143238621265</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2476,7 +2476,7 @@
         <v>98</v>
       </c>
       <c r="D88">
-        <v>125.3978642074147</v>
+        <v>125.3625080915341</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2630,7 +2630,7 @@
         <v>109</v>
       </c>
       <c r="D99">
-        <v>120.1509634116913</v>
+        <v>120.1344895775441</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2672,7 +2672,7 @@
         <v>112</v>
       </c>
       <c r="D102">
-        <v>115.3861749567244</v>
+        <v>115.3980117204811</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2868,7 +2868,7 @@
         <v>126</v>
       </c>
       <c r="D116">
-        <v>130.2313206149672</v>
+        <v>130.2095340411168</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3064,7 +3064,7 @@
         <v>140</v>
       </c>
       <c r="D130">
-        <v>112.8561925223952</v>
+        <v>112.8593061453139</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3246,7 +3246,7 @@
         <v>153</v>
       </c>
       <c r="D143">
-        <v>126.5119573777513</v>
+        <v>126.4851431249268</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3372,7 +3372,7 @@
         <v>162</v>
       </c>
       <c r="D152">
-        <v>139.0008329276324</v>
+        <v>139.0009465272276</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3400,7 +3400,7 @@
         <v>164</v>
       </c>
       <c r="D154">
-        <v>140.7580912513902</v>
+        <v>140.7596464833414</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3414,7 +3414,7 @@
         <v>165</v>
       </c>
       <c r="D155">
-        <v>108.7692859194662</v>
+        <v>108.7732687213807</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3470,7 +3470,7 @@
         <v>169</v>
       </c>
       <c r="D159">
-        <v>122.537558413563</v>
+        <v>122.5358319986594</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3484,7 +3484,7 @@
         <v>170</v>
       </c>
       <c r="D160">
-        <v>138.6742590236462</v>
+        <v>137.7024134239995</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3498,7 +3498,7 @@
         <v>171</v>
       </c>
       <c r="D161">
-        <v>134.9308620203854</v>
+        <v>134.933030507365</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3526,7 +3526,7 @@
         <v>173</v>
       </c>
       <c r="D163">
-        <v>138.6700889578235</v>
+        <v>138.6650026213173</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3568,7 +3568,7 @@
         <v>176</v>
       </c>
       <c r="D166">
-        <v>137.3987730342142</v>
+        <v>137.4150126721454</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3582,7 +3582,7 @@
         <v>177</v>
       </c>
       <c r="D167">
-        <v>126.925379455535</v>
+        <v>126.9611870277596</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3596,7 +3596,7 @@
         <v>178</v>
       </c>
       <c r="D168">
-        <v>185.3929722724385</v>
+        <v>185.397168187145</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3666,7 +3666,7 @@
         <v>183</v>
       </c>
       <c r="D173">
-        <v>159.0079003770152</v>
+        <v>159.0651206423306</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3680,7 +3680,7 @@
         <v>184</v>
       </c>
       <c r="D174">
-        <v>131.6492265425367</v>
+        <v>131.5806338446446</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3750,7 +3750,7 @@
         <v>189</v>
       </c>
       <c r="D179">
-        <v>112.4706988397137</v>
+        <v>112.5126692272111</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3806,7 +3806,7 @@
         <v>193</v>
       </c>
       <c r="D183">
-        <v>139.7909226786381</v>
+        <v>139.8103827003823</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3820,7 +3820,7 @@
         <v>194</v>
       </c>
       <c r="D184">
-        <v>140.1215903443461</v>
+        <v>140.1214792503418</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3834,7 +3834,7 @@
         <v>195</v>
       </c>
       <c r="D185">
-        <v>113.3456663159239</v>
+        <v>113.345639413551</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3848,7 +3848,7 @@
         <v>196</v>
       </c>
       <c r="D186">
-        <v>113.1526504379452</v>
+        <v>113.1563533146939</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3862,7 +3862,7 @@
         <v>197</v>
       </c>
       <c r="D187">
-        <v>107.4915007510725</v>
+        <v>107.4949146721116</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4016,7 +4016,7 @@
         <v>208</v>
       </c>
       <c r="D198">
-        <v>883.6161414339615</v>
+        <v>800.6176232458042</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4030,7 +4030,7 @@
         <v>209</v>
       </c>
       <c r="D199">
-        <v>124.1700135139511</v>
+        <v>124.1775924385976</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4044,7 +4044,7 @@
         <v>210</v>
       </c>
       <c r="D200">
-        <v>92.31745878559509</v>
+        <v>92.31811866381666</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4142,7 +4142,7 @@
         <v>217</v>
       </c>
       <c r="D207">
-        <v>90.9292385028087</v>
+        <v>90.93111932507978</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4198,7 +4198,7 @@
         <v>221</v>
       </c>
       <c r="D211">
-        <v>89.884811319444</v>
+        <v>89.8875317281326</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4212,7 +4212,7 @@
         <v>222</v>
       </c>
       <c r="D212">
-        <v>114.4926901827746</v>
+        <v>114.4897539580323</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4296,7 +4296,7 @@
         <v>228</v>
       </c>
       <c r="D218">
-        <v>88.36122663914779</v>
+        <v>88.36382604910149</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4450,7 +4450,7 @@
         <v>239</v>
       </c>
       <c r="D229">
-        <v>166.4717968035883</v>
+        <v>166.4239351118477</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4548,7 +4548,7 @@
         <v>246</v>
       </c>
       <c r="D236">
-        <v>126.7251598102031</v>
+        <v>126.7271166307288</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4660,7 +4660,7 @@
         <v>254</v>
       </c>
       <c r="D244">
-        <v>154.9069058515506</v>
+        <v>154.9133920625986</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4674,7 +4674,7 @@
         <v>255</v>
       </c>
       <c r="D245">
-        <v>155.7364381698148</v>
+        <v>155.7213424525874</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -4842,7 +4842,7 @@
         <v>267</v>
       </c>
       <c r="D257">
-        <v>130.567157467234</v>
+        <v>130.5654575003647</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -4912,7 +4912,7 @@
         <v>272</v>
       </c>
       <c r="D262">
-        <v>137.189572889743</v>
+        <v>137.193816989</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -4982,7 +4982,7 @@
         <v>277</v>
       </c>
       <c r="D267">
-        <v>142.3829196455186</v>
+        <v>142.3832005253657</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -4996,7 +4996,7 @@
         <v>278</v>
       </c>
       <c r="D268">
-        <v>148.376612869488</v>
+        <v>148.3762876359158</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5192,7 +5192,7 @@
         <v>13</v>
       </c>
       <c r="D282">
-        <v>249.0057415068017</v>
+        <v>249.1978048551792</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5290,7 +5290,7 @@
         <v>20</v>
       </c>
       <c r="D289">
-        <v>241.6917476201799</v>
+        <v>243.2069074519231</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5304,7 +5304,7 @@
         <v>21</v>
       </c>
       <c r="D290">
-        <v>183.4061216545753</v>
+        <v>183.4023363855662</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5332,7 +5332,7 @@
         <v>23</v>
       </c>
       <c r="D292">
-        <v>141.6834686724694</v>
+        <v>142.1239403357839</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5346,7 +5346,7 @@
         <v>24</v>
       </c>
       <c r="D293">
-        <v>129.3460707505322</v>
+        <v>129.340225200911</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -5374,7 +5374,7 @@
         <v>26</v>
       </c>
       <c r="D295">
-        <v>173.1437009248761</v>
+        <v>173.1205892905873</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -5388,7 +5388,7 @@
         <v>27</v>
       </c>
       <c r="D296">
-        <v>149.625326178816</v>
+        <v>149.6306047578079</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -5416,7 +5416,7 @@
         <v>29</v>
       </c>
       <c r="D298">
-        <v>155.4758497746781</v>
+        <v>155.4695476768279</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -5444,7 +5444,7 @@
         <v>31</v>
       </c>
       <c r="D300">
-        <v>351.1198411291278</v>
+        <v>351.2712981237857</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -5458,7 +5458,7 @@
         <v>32</v>
       </c>
       <c r="D301">
-        <v>198.2059145190422</v>
+        <v>198.1891826680716</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -5472,7 +5472,7 @@
         <v>33</v>
       </c>
       <c r="D302">
-        <v>293.7102778645475</v>
+        <v>289.4761955685092</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -5528,7 +5528,7 @@
         <v>37</v>
       </c>
       <c r="D306">
-        <v>406.7458440930033</v>
+        <v>406.9543007223361</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -5542,7 +5542,7 @@
         <v>38</v>
       </c>
       <c r="D307">
-        <v>342.9683442798614</v>
+        <v>344.3885506643189</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -5570,7 +5570,7 @@
         <v>40</v>
       </c>
       <c r="D309">
-        <v>209.5572017195132</v>
+        <v>209.5736883968612</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -5710,7 +5710,7 @@
         <v>50</v>
       </c>
       <c r="D319">
-        <v>386.0589506675702</v>
+        <v>395.3261327933687</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -5892,7 +5892,7 @@
         <v>63</v>
       </c>
       <c r="D332">
-        <v>154.6565380899371</v>
+        <v>154.6580266425538</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -5948,7 +5948,7 @@
         <v>67</v>
       </c>
       <c r="D336">
-        <v>162.4630262438534</v>
+        <v>162.3530089784758</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6088,7 +6088,7 @@
         <v>77</v>
       </c>
       <c r="D346">
-        <v>153.0684312798756</v>
+        <v>153.1439939923921</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6144,7 +6144,7 @@
         <v>81</v>
       </c>
       <c r="D350">
-        <v>157.277597028185</v>
+        <v>157.2869715054232</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6214,7 +6214,7 @@
         <v>86</v>
       </c>
       <c r="D355">
-        <v>121.4019984412954</v>
+        <v>121.4021417200632</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6536,7 +6536,7 @@
         <v>109</v>
       </c>
       <c r="D378">
-        <v>121.2323486232553</v>
+        <v>121.2321221320193</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -6970,7 +6970,7 @@
         <v>140</v>
       </c>
       <c r="D409">
-        <v>113.467885197943</v>
+        <v>113.4804928164788</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -7278,7 +7278,7 @@
         <v>162</v>
       </c>
       <c r="D431">
-        <v>148.4070019595819</v>
+        <v>148.4073321844264</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -7376,7 +7376,7 @@
         <v>169</v>
       </c>
       <c r="D438">
-        <v>114.0239697633976</v>
+        <v>114.0191936449669</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -7404,7 +7404,7 @@
         <v>171</v>
       </c>
       <c r="D440">
-        <v>144.8623625779793</v>
+        <v>144.8683265717344</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -7432,7 +7432,7 @@
         <v>173</v>
       </c>
       <c r="D442">
-        <v>140.482787013643</v>
+        <v>140.4709265242394</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -7474,7 +7474,7 @@
         <v>176</v>
       </c>
       <c r="D445">
-        <v>147.6732120005297</v>
+        <v>147.7200295660203</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -7488,7 +7488,7 @@
         <v>177</v>
       </c>
       <c r="D446">
-        <v>123.5767158703476</v>
+        <v>123.5782777602328</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -7502,7 +7502,7 @@
         <v>178</v>
       </c>
       <c r="D447">
-        <v>206.1591286634809</v>
+        <v>206.1672068399098</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -7656,7 +7656,7 @@
         <v>189</v>
       </c>
       <c r="D458">
-        <v>111.8740990691466</v>
+        <v>111.8918759566037</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -7726,7 +7726,7 @@
         <v>194</v>
       </c>
       <c r="D463">
-        <v>131.7684327872995</v>
+        <v>131.7681269294069</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -7922,7 +7922,7 @@
         <v>208</v>
       </c>
       <c r="D477">
-        <v>888.7831233587655</v>
+        <v>805.2992679034915</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -7936,7 +7936,7 @@
         <v>209</v>
       </c>
       <c r="D478">
-        <v>139.7244939198997</v>
+        <v>139.7495300640706</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -7950,7 +7950,7 @@
         <v>210</v>
       </c>
       <c r="D479">
-        <v>90.16753862576014</v>
+        <v>90.16925708605552</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -8048,7 +8048,7 @@
         <v>217</v>
       </c>
       <c r="D486">
-        <v>85.00143724000357</v>
+        <v>85.00690295967178</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -8104,7 +8104,7 @@
         <v>221</v>
       </c>
       <c r="D490">
-        <v>83.67549424437647</v>
+        <v>83.68121205900796</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -8118,7 +8118,7 @@
         <v>222</v>
       </c>
       <c r="D491">
-        <v>111.7222502658994</v>
+        <v>111.7174781561641</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -8202,7 +8202,7 @@
         <v>228</v>
       </c>
       <c r="D497">
-        <v>90.09960192895551</v>
+        <v>90.1034093084142</v>
       </c>
     </row>
     <row r="498" spans="1:4">
@@ -8356,7 +8356,7 @@
         <v>239</v>
       </c>
       <c r="D508">
-        <v>170.1276920312626</v>
+        <v>170.0752198347288</v>
       </c>
     </row>
     <row r="509" spans="1:4">
@@ -8454,7 +8454,7 @@
         <v>246</v>
       </c>
       <c r="D515">
-        <v>134.1338801360449</v>
+        <v>134.1383583262127</v>
       </c>
     </row>
     <row r="516" spans="1:4">
@@ -8566,7 +8566,7 @@
         <v>254</v>
       </c>
       <c r="D523">
-        <v>158.569388767185</v>
+        <v>158.5913849865695</v>
       </c>
     </row>
     <row r="524" spans="1:4">
@@ -8580,7 +8580,7 @@
         <v>255</v>
       </c>
       <c r="D524">
-        <v>157.4674083299361</v>
+        <v>157.4337525611743</v>
       </c>
     </row>
     <row r="525" spans="1:4">
@@ -8748,7 +8748,7 @@
         <v>267</v>
       </c>
       <c r="D536">
-        <v>141.8894080721186</v>
+        <v>141.8845489927381</v>
       </c>
     </row>
     <row r="537" spans="1:4">
@@ -8818,7 +8818,7 @@
         <v>272</v>
       </c>
       <c r="D541">
-        <v>152.0339831244796</v>
+        <v>152.0443979159513</v>
       </c>
     </row>
     <row r="542" spans="1:4">
@@ -8888,7 +8888,7 @@
         <v>277</v>
       </c>
       <c r="D546">
-        <v>145.9281574194572</v>
+        <v>145.9287511539282</v>
       </c>
     </row>
     <row r="547" spans="1:4">
@@ -8902,7 +8902,7 @@
         <v>278</v>
       </c>
       <c r="D547">
-        <v>148.4165684920093</v>
+        <v>148.4159223851598</v>
       </c>
     </row>
     <row r="548" spans="1:4">
@@ -9308,7 +9308,7 @@
         <v>28</v>
       </c>
       <c r="D576">
-        <v>174.1715167905734</v>
+        <v>170.3063232626137</v>
       </c>
     </row>
     <row r="577" spans="1:4">
@@ -9448,7 +9448,7 @@
         <v>38</v>
       </c>
       <c r="D586">
-        <v>614.8889535030341</v>
+        <v>615.4637013721582</v>
       </c>
     </row>
     <row r="587" spans="1:4">
@@ -9546,7 +9546,7 @@
         <v>45</v>
       </c>
       <c r="D593">
-        <v>1220.196339322596</v>
+        <v>1171.220965010906</v>
       </c>
     </row>
     <row r="594" spans="1:4">
@@ -11562,7 +11562,7 @@
         <v>189</v>
       </c>
       <c r="D737">
-        <v>110.3606292291545</v>
+        <v>110.4623808481347</v>
       </c>
     </row>
     <row r="738" spans="1:4">
@@ -11828,7 +11828,7 @@
         <v>208</v>
       </c>
       <c r="D756">
-        <v>872.2452862816839</v>
+        <v>790.3148383605993</v>
       </c>
     </row>
     <row r="757" spans="1:4">
@@ -13060,7 +13060,7 @@
         <v>17</v>
       </c>
       <c r="D844">
-        <v>168.3054849364802</v>
+        <v>169.2873521717438</v>
       </c>
     </row>
     <row r="845" spans="1:4">
@@ -13256,7 +13256,7 @@
         <v>31</v>
       </c>
       <c r="D858">
-        <v>250.3829080018397</v>
+        <v>251.8618013904449</v>
       </c>
     </row>
     <row r="859" spans="1:4">
@@ -13284,7 +13284,7 @@
         <v>33</v>
       </c>
       <c r="D860">
-        <v>221.0651461053728</v>
+        <v>219.5455793492428</v>
       </c>
     </row>
     <row r="861" spans="1:4">
@@ -13312,7 +13312,7 @@
         <v>35</v>
       </c>
       <c r="D862">
-        <v>151.5388277907181</v>
+        <v>151.9743703966723</v>
       </c>
     </row>
     <row r="863" spans="1:4">
@@ -13340,7 +13340,7 @@
         <v>37</v>
       </c>
       <c r="D864">
-        <v>551.3819212944617</v>
+        <v>572.5044797607951</v>
       </c>
     </row>
     <row r="865" spans="1:4">
@@ -13424,7 +13424,7 @@
         <v>43</v>
       </c>
       <c r="D870">
-        <v>495.4982713194803</v>
+        <v>500.269965116759</v>
       </c>
     </row>
     <row r="871" spans="1:4">
@@ -14586,7 +14586,7 @@
         <v>126</v>
       </c>
       <c r="D953">
-        <v>131.8415705897358</v>
+        <v>131.5895772326878</v>
       </c>
     </row>
     <row r="954" spans="1:4">
@@ -15468,7 +15468,7 @@
         <v>189</v>
       </c>
       <c r="D1016">
-        <v>110.4749503891171</v>
+        <v>110.601981939455</v>
       </c>
     </row>
     <row r="1017" spans="1:4">
@@ -15524,7 +15524,7 @@
         <v>193</v>
       </c>
       <c r="D1020">
-        <v>114.4194094381938</v>
+        <v>114.6536131802722</v>
       </c>
     </row>
     <row r="1021" spans="1:4">
@@ -15734,7 +15734,7 @@
         <v>208</v>
       </c>
       <c r="D1035">
-        <v>872.2452862816839</v>
+        <v>790.3148383605993</v>
       </c>
     </row>
     <row r="1036" spans="1:4">
@@ -17036,7 +17036,7 @@
         <v>22</v>
       </c>
       <c r="D1128">
-        <v>141.3161497163653</v>
+        <v>147.7209677137947</v>
       </c>
     </row>
     <row r="1129" spans="1:4">
@@ -17260,7 +17260,7 @@
         <v>38</v>
       </c>
       <c r="D1144">
-        <v>1381.877702849276</v>
+        <v>1384.038937578172</v>
       </c>
     </row>
     <row r="1145" spans="1:4">
@@ -17358,7 +17358,7 @@
         <v>45</v>
       </c>
       <c r="D1151">
-        <v>5989.342053191659</v>
+        <v>5674.57996987465</v>
       </c>
     </row>
     <row r="1152" spans="1:4">
@@ -17428,7 +17428,7 @@
         <v>50</v>
       </c>
       <c r="D1156">
-        <v>1883.282935390267</v>
+        <v>2065.631767368664</v>
       </c>
     </row>
     <row r="1157" spans="1:4">
@@ -17526,7 +17526,7 @@
         <v>57</v>
       </c>
       <c r="D1163">
-        <v>8824.347577512593</v>
+        <v>8708.938401369291</v>
       </c>
     </row>
     <row r="1164" spans="1:4">
@@ -19374,7 +19374,7 @@
         <v>189</v>
       </c>
       <c r="D1295">
-        <v>112.5356328661776</v>
+        <v>112.6158791101924</v>
       </c>
     </row>
     <row r="1296" spans="1:4">
@@ -19640,7 +19640,7 @@
         <v>208</v>
       </c>
       <c r="D1314">
-        <v>872.2452862816839</v>
+        <v>790.3148383605993</v>
       </c>
     </row>
     <row r="1315" spans="1:4">
@@ -21208,7 +21208,7 @@
         <v>41</v>
       </c>
       <c r="D1426">
-        <v>976.4791871809209</v>
+        <v>961.21690527648</v>
       </c>
     </row>
     <row r="1427" spans="1:4">
@@ -21306,7 +21306,7 @@
         <v>48</v>
       </c>
       <c r="D1433">
-        <v>641.0572694858735</v>
+        <v>676.8807865116684</v>
       </c>
     </row>
     <row r="1434" spans="1:4">
@@ -21362,7 +21362,7 @@
         <v>52</v>
       </c>
       <c r="D1437">
-        <v>474.5948189077003</v>
+        <v>477.6985136387809</v>
       </c>
     </row>
     <row r="1438" spans="1:4">
@@ -21740,7 +21740,7 @@
         <v>79</v>
       </c>
       <c r="D1464">
-        <v>143.2465522348989</v>
+        <v>137.5519798084234</v>
       </c>
     </row>
     <row r="1465" spans="1:4">
@@ -21992,7 +21992,7 @@
         <v>97</v>
       </c>
       <c r="D1482">
-        <v>119.071627049043</v>
+        <v>119.0694290839065</v>
       </c>
     </row>
     <row r="1483" spans="1:4">
@@ -23280,7 +23280,7 @@
         <v>189</v>
       </c>
       <c r="D1574">
-        <v>113.4447957744366</v>
+        <v>113.4770241724436</v>
       </c>
     </row>
     <row r="1575" spans="1:4">
@@ -23364,7 +23364,7 @@
         <v>195</v>
       </c>
       <c r="D1580">
-        <v>114.6965648012423</v>
+        <v>114.636235190807</v>
       </c>
     </row>
     <row r="1581" spans="1:4">
@@ -23378,7 +23378,7 @@
         <v>196</v>
       </c>
       <c r="D1581">
-        <v>114.4617879138492</v>
+        <v>114.3672960565542</v>
       </c>
     </row>
     <row r="1582" spans="1:4">
@@ -23392,7 +23392,7 @@
         <v>197</v>
       </c>
       <c r="D1582">
-        <v>119.6379763724602</v>
+        <v>119.5641217351284</v>
       </c>
     </row>
     <row r="1583" spans="1:4">
@@ -23546,7 +23546,7 @@
         <v>208</v>
       </c>
       <c r="D1593">
-        <v>872.2452862816839</v>
+        <v>790.3148383605993</v>
       </c>
     </row>
     <row r="1594" spans="1:4">
@@ -24960,7 +24960,7 @@
         <v>30</v>
       </c>
       <c r="D1694">
-        <v>205.5637636480926</v>
+        <v>205.5326999647255</v>
       </c>
     </row>
     <row r="1695" spans="1:4">
@@ -25072,7 +25072,7 @@
         <v>38</v>
       </c>
       <c r="D1702">
-        <v>402.3489251359134</v>
+        <v>403.9892589836445</v>
       </c>
     </row>
     <row r="1703" spans="1:4">
@@ -25114,7 +25114,7 @@
         <v>41</v>
       </c>
       <c r="D1705">
-        <v>1035.310886463779</v>
+        <v>1008.839434318284</v>
       </c>
     </row>
     <row r="1706" spans="1:4">
@@ -25240,7 +25240,7 @@
         <v>50</v>
       </c>
       <c r="D1714">
-        <v>560.4242232376619</v>
+        <v>564.8073303003106</v>
       </c>
     </row>
     <row r="1715" spans="1:4">
@@ -25366,7 +25366,7 @@
         <v>59</v>
       </c>
       <c r="D1723">
-        <v>388.644234372939</v>
+        <v>387.3322216262365</v>
       </c>
     </row>
     <row r="1724" spans="1:4">
@@ -25478,7 +25478,7 @@
         <v>67</v>
       </c>
       <c r="D1731">
-        <v>137.5971252850962</v>
+        <v>137.5881996098391</v>
       </c>
     </row>
     <row r="1732" spans="1:4">
@@ -25646,7 +25646,7 @@
         <v>79</v>
       </c>
       <c r="D1743">
-        <v>134.5733934889661</v>
+        <v>134.5675022341749</v>
       </c>
     </row>
     <row r="1744" spans="1:4">
@@ -25730,7 +25730,7 @@
         <v>85</v>
       </c>
       <c r="D1749">
-        <v>134.284709614026</v>
+        <v>134.3385162323042</v>
       </c>
     </row>
     <row r="1750" spans="1:4">
@@ -25786,7 +25786,7 @@
         <v>89</v>
       </c>
       <c r="D1753">
-        <v>112.3880997307336</v>
+        <v>112.2753011912742</v>
       </c>
     </row>
     <row r="1754" spans="1:4">
@@ -25912,7 +25912,7 @@
         <v>98</v>
       </c>
       <c r="D1762">
-        <v>141.8867266461941</v>
+        <v>141.7072656869226</v>
       </c>
     </row>
     <row r="1763" spans="1:4">
@@ -26066,7 +26066,7 @@
         <v>109</v>
       </c>
       <c r="D1773">
-        <v>119.0411898489601</v>
+        <v>118.966912511916</v>
       </c>
     </row>
     <row r="1774" spans="1:4">
@@ -26108,7 +26108,7 @@
         <v>112</v>
       </c>
       <c r="D1776">
-        <v>113.6448987675046</v>
+        <v>113.7155539565642</v>
       </c>
     </row>
     <row r="1777" spans="1:4">
@@ -26682,7 +26682,7 @@
         <v>153</v>
       </c>
       <c r="D1817">
-        <v>122.9502027741956</v>
+        <v>122.7615460760294</v>
       </c>
     </row>
     <row r="1818" spans="1:4">
@@ -26836,7 +26836,7 @@
         <v>164</v>
       </c>
       <c r="D1828">
-        <v>111.7358933356428</v>
+        <v>111.7493735490837</v>
       </c>
     </row>
     <row r="1829" spans="1:4">
@@ -26850,7 +26850,7 @@
         <v>165</v>
       </c>
       <c r="D1829">
-        <v>112.5988939803761</v>
+        <v>112.6213549493049</v>
       </c>
     </row>
     <row r="1830" spans="1:4">
@@ -27018,7 +27018,7 @@
         <v>177</v>
       </c>
       <c r="D1841">
-        <v>121.4253991016029</v>
+        <v>121.5796183665823</v>
       </c>
     </row>
     <row r="1842" spans="1:4">
@@ -27102,7 +27102,7 @@
         <v>183</v>
       </c>
       <c r="D1847">
-        <v>150.8642003930524</v>
+        <v>151.541687282045</v>
       </c>
     </row>
     <row r="1848" spans="1:4">
@@ -27116,7 +27116,7 @@
         <v>184</v>
       </c>
       <c r="D1848">
-        <v>120.4617142874121</v>
+        <v>120.1015464686106</v>
       </c>
     </row>
     <row r="1849" spans="1:4">
@@ -27186,7 +27186,7 @@
         <v>189</v>
       </c>
       <c r="D1853">
-        <v>114.1586156267849</v>
+        <v>114.2039076614239</v>
       </c>
     </row>
     <row r="1854" spans="1:4">
@@ -27452,7 +27452,7 @@
         <v>208</v>
       </c>
       <c r="D1872">
-        <v>872.2452862816839</v>
+        <v>790.3148383605993</v>
       </c>
     </row>
     <row r="1873" spans="1:4">
@@ -29090,7 +29090,7 @@
         <v>46</v>
       </c>
       <c r="D1989">
-        <v>1181.456844736158</v>
+        <v>1149.075611890784</v>
       </c>
     </row>
     <row r="1990" spans="1:4">
@@ -29118,7 +29118,7 @@
         <v>48</v>
       </c>
       <c r="D1991">
-        <v>756.8048435828757</v>
+        <v>717.5096549438983</v>
       </c>
     </row>
     <row r="1992" spans="1:4">
@@ -29132,7 +29132,7 @@
         <v>49</v>
       </c>
       <c r="D1992">
-        <v>1296.680206105644</v>
+        <v>1240.700558537992</v>
       </c>
     </row>
     <row r="1993" spans="1:4">
@@ -31092,7 +31092,7 @@
         <v>189</v>
       </c>
       <c r="D2132">
-        <v>114.2870872069335</v>
+        <v>114.3072594856945</v>
       </c>
     </row>
     <row r="2133" spans="1:4">
@@ -31358,7 +31358,7 @@
         <v>208</v>
       </c>
       <c r="D2151">
-        <v>872.2452862816839</v>
+        <v>790.3148383605993</v>
       </c>
     </row>
     <row r="2152" spans="1:4">
@@ -32884,7 +32884,7 @@
         <v>38</v>
       </c>
       <c r="D2260">
-        <v>910.5992336581625</v>
+        <v>907.9831058276878</v>
       </c>
     </row>
     <row r="2261" spans="1:4">
@@ -34732,7 +34732,7 @@
         <v>170</v>
       </c>
       <c r="D2392">
-        <v>130.4217156968545</v>
+        <v>112.043774</v>
       </c>
     </row>
     <row r="2393" spans="1:4">
@@ -34998,7 +34998,7 @@
         <v>189</v>
       </c>
       <c r="D2411">
-        <v>110.2451900125205</v>
+        <v>110.3400098243224</v>
       </c>
     </row>
     <row r="2412" spans="1:4">
@@ -35082,7 +35082,7 @@
         <v>195</v>
       </c>
       <c r="D2417">
-        <v>106.5006752816358</v>
+        <v>106.6910448884543</v>
       </c>
     </row>
     <row r="2418" spans="1:4">
@@ -35096,7 +35096,7 @@
         <v>196</v>
       </c>
       <c r="D2418">
-        <v>104.3533840072242</v>
+        <v>104.5277298238565</v>
       </c>
     </row>
     <row r="2419" spans="1:4">
@@ -35110,7 +35110,7 @@
         <v>197</v>
       </c>
       <c r="D2419">
-        <v>107.4160881769058</v>
+        <v>107.6199918570025</v>
       </c>
     </row>
     <row r="2420" spans="1:4">
@@ -35264,7 +35264,7 @@
         <v>208</v>
       </c>
       <c r="D2430">
-        <v>872.2452862816839</v>
+        <v>790.3148383605993</v>
       </c>
     </row>
     <row r="2431" spans="1:4">
